--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>土地坐落</t>
   </si>
@@ -171,10 +171,22 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>五鼎生技</t>
   </si>
   <si>
     <t>萊德科技</t>
+  </si>
+  <si>
+    <t>2011-11-24</t>
   </si>
   <si>
     <t>名</t>
@@ -1018,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1043,13 +1055,22 @@
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1066,13 +1087,22 @@
       <c r="G2" s="2">
         <v>29780</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1088,6 +1118,15 @@
       </c>
       <c r="G3" s="2">
         <v>27490</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -1105,22 +1144,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1128,14 +1167,14 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1145,22 +1184,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>土地坐落</t>
   </si>
@@ -171,6 +171,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t>萊德科技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-24</t>
@@ -1030,13 +1036,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1064,13 +1070,16 @@
       <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1088,21 +1097,24 @@
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>962</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1120,12 +1132,15 @@
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>962</v>
       </c>
     </row>
@@ -1144,22 +1159,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1167,14 +1182,14 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1184,22 +1199,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>土地坐落</t>
   </si>
@@ -174,6 +174,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -183,6 +186,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>五鼎生技</t>
   </si>
   <si>
@@ -192,7 +201,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-24</t>
+  </si>
+  <si>
+    <t>tmp55951</t>
   </si>
   <si>
     <t>名</t>
@@ -1036,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1073,13 +1088,22 @@
       <c r="K1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1097,24 +1121,33 @@
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>962</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1132,16 +1165,25 @@
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1159,22 +1201,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1182,14 +1224,14 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1199,22 +1241,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,12 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方.公尺）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺東縣東河鄉都蘭段10420000地號</t>
+  </si>
+  <si>
+    <t>臺東縣成功鎮忠智段11700001地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市豐康段07330119地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新生段00020006地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>廖國棟</t>
+  </si>
+  <si>
+    <t>陳姿伶</t>
+  </si>
+  <si>
+    <t>89年09月27日</t>
+  </si>
+  <si>
+    <t>86年11月03日</t>
+  </si>
+  <si>
+    <t>90年01月12日</t>
+  </si>
+  <si>
+    <t>94年04月15日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-24</t>
+  </si>
+  <si>
+    <t>tmp55951</t>
+  </si>
+  <si>
+    <t>建物標示</t>
+  </si>
+  <si>
+    <t>面積（平方公尺）</t>
   </si>
   <si>
     <t>權利範圍(持分）</t>
@@ -39,94 +135,46 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
+    <t>取得價額.</t>
+  </si>
+  <si>
+    <t>臺東縣成功鎮大同路</t>
+  </si>
+  <si>
+    <t>臺東縣台東市四維路</t>
+  </si>
+  <si>
+    <t>臺東縣台東市永樂路</t>
+  </si>
+  <si>
+    <t>94年09月15日</t>
+  </si>
+  <si>
+    <t>rmt=f貝賣</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺東縣東河鄉都蘭段1042-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣成功鎮忠智段1170-0001 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市豐康段0733-0119 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新生段0002-0006 地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廖國棟</t>
-  </si>
-  <si>
-    <t>陳姿伶</t>
-  </si>
-  <si>
-    <t>89年09月 27日</t>
-  </si>
-  <si>
-    <t>86年11月 03日</t>
-  </si>
-  <si>
-    <t>90年01月 12日</t>
-  </si>
-  <si>
-    <t>94年04月 15日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>取得價額.</t>
-  </si>
-  <si>
-    <t>臺東縣成功鎮大同路</t>
-  </si>
-  <si>
-    <t>臺東縣台東市四維路</t>
-  </si>
-  <si>
-    <t>臺東縣台東市永樂路</t>
-  </si>
-  <si>
-    <t>94年09月 15日</t>
-  </si>
-  <si>
-    <t>rm -^t=f 貝賣</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>轎車</t>
   </si>
   <si>
     <t>休旅車</t>
   </si>
   <si>
-    <t>99年09月 .01曰</t>
-  </si>
-  <si>
-    <t>93年01月 06日</t>
+    <t>99年09月.01曰</t>
+  </si>
+  <si>
+    <t>93年01月06日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -153,12 +201,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -171,27 +213,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>五鼎生技</t>
   </si>
   <si>
@@ -201,15 +222,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-24</t>
-  </si>
-  <si>
-    <t>tmp55951</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -228,22 +240,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -608,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,109 +648,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>15427</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>2082645</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>962</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>104.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>699882</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>962</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>220.81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>1104050</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>962</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>1930500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>962</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -756,25 +873,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -782,22 +899,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>194.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>474900</v>
@@ -808,22 +925,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>332.69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2">
         <v>784500</v>
@@ -834,22 +951,22 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>292.61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>706500</v>
@@ -870,22 +987,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -893,19 +1010,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>660000</v>
@@ -916,19 +1033,19 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>2500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>965000</v>
@@ -949,19 +1066,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -969,16 +1086,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>11121</v>
@@ -989,16 +1106,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>107765</v>
@@ -1009,16 +1126,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>968171</v>
@@ -1029,16 +1146,16 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>1683</v>
@@ -1059,43 +1176,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1103,10 +1220,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>2978</v>
@@ -1115,28 +1232,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
         <v>61</v>
@@ -1147,10 +1264,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>2749</v>
@@ -1159,28 +1276,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>962</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
         <v>62</v>
@@ -1201,22 +1318,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1224,14 +1341,14 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1241,22 +1358,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺東縣東河鄉都蘭段10420000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺東縣成功鎮忠智段11700001地號</t>
@@ -75,9 +78,6 @@
     <t>臺東縣台東市新生段00020006地號</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>陳姿伶</t>
   </si>
   <si>
-    <t>89年09月27日</t>
-  </si>
-  <si>
     <t>86年11月03日</t>
   </si>
   <si>
@@ -117,27 +114,6 @@
     <t>tmp55951</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額.</t>
-  </si>
-  <si>
     <t>臺東縣成功鎮大同路</t>
   </si>
   <si>
@@ -153,115 +129,70 @@
     <t>rmt=f貝賣</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>轎車</t>
+  </si>
+  <si>
+    <t>99年09月.01曰</t>
+  </si>
+  <si>
+    <t>休旅車</t>
+  </si>
+  <si>
+    <t>93年01月06日</t>
+  </si>
+  <si>
+    <t>台灣郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>萊德科技</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>轎車</t>
-  </si>
-  <si>
-    <t>休旅車</t>
-  </si>
-  <si>
-    <t>99年09月.01曰</t>
-  </si>
-  <si>
-    <t>93年01月06日</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>台灣郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣銀行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>五鼎生技</t>
-  </si>
-  <si>
-    <t>萊德科技</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
   </si>
 </sst>
 </file>
@@ -620,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,19 +600,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15427</v>
+        <v>104.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -690,19 +627,19 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
-        <v>2082645</v>
+        <v>699882</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -711,27 +648,33 @@
         <v>962</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>104.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>104.46</v>
+        <v>220.81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -740,16 +683,16 @@
         <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>699882</v>
+        <v>1104050</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
@@ -758,21 +701,27 @@
         <v>962</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>220.81</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -784,19 +733,19 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1930500</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2">
-        <v>1104050</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
@@ -805,57 +754,16 @@
         <v>962</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1930500</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>962</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,62 +781,62 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>194.93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="H1" s="1">
+        <v>474900</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>194.93</v>
+        <v>332.69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2">
-        <v>474900</v>
+        <v>784500</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>332.69</v>
+        <v>292.61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -937,38 +845,12 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>784500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>292.61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2">
         <v>706500</v>
       </c>
     </row>
@@ -979,7 +861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -987,67 +869,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>660000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2">
         <v>965000</v>
       </c>
     </row>
@@ -1058,7 +917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1066,98 +925,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>11121</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>11121</v>
+        <v>107765</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>107765</v>
+        <v>968171</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>968171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
         <v>1683</v>
       </c>
     </row>
@@ -1168,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1182,16 +1021,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1217,34 +1056,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>2978</v>
+        <v>2749</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
-        <v>29780</v>
+        <v>27490</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
@@ -1253,53 +1092,9 @@
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2749</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2">
-        <v>27490</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <v>962</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2">
         <v>62</v>
       </c>
     </row>
@@ -1310,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1318,62 +1113,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺東縣東河鄉都蘭段10420000地號</t>
+  </si>
+  <si>
     <t>臺東縣成功鎮忠智段11700001地號</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>臺東縣台東市新生段00020006地號</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>陳姿伶</t>
   </si>
   <si>
+    <t>89年09月27日</t>
+  </si>
+  <si>
     <t>86年11月03日</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>五鼎生技</t>
   </si>
   <si>
     <t>萊德科技</t>
@@ -551,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,160 +621,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>104.46</v>
+        <v>15427</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>699882</v>
+        <v>2082645</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>962</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>104.46</v>
+        <v>7713.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>220.81</v>
+        <v>104.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
-        <v>1104050</v>
+        <v>699882</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>962</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>220.81</v>
+        <v>104.46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>117</v>
+        <v>220.81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>1930500</v>
+        <v>1104050</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>962</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1930500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>962</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>117</v>
       </c>
     </row>
@@ -773,85 +838,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>194.93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>474900</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>962</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>194.93</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1">
-        <v>474900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>332.69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2">
+        <v>784500</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>962</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>332.69</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>292.61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2">
-        <v>784500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>706500</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>962</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2">
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>292.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>706500</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,19 +1068,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1">
         <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1">
         <v>660000</v>
@@ -889,24 +1088,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
         <v>2500</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
         <v>965000</v>
       </c>
     </row>
@@ -917,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,16 +1147,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>11121</v>
@@ -942,61 +1164,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>107765</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>968171</v>
+        <v>107765</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
+        <v>968171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
         <v>1683</v>
       </c>
     </row>
@@ -1007,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,13 +1263,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1056,45 +1298,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>2749</v>
+        <v>2978</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
-        <v>27490</v>
+        <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2749</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27490</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
         <v>62</v>
       </c>
     </row>
@@ -1105,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1113,39 +1399,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>79</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -138,13 +138,16 @@
     <t>rmt=f貝賣</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>轎車</t>
   </si>
   <si>
+    <t>休旅車</t>
+  </si>
+  <si>
     <t>99年09月.01曰</t>
-  </si>
-  <si>
-    <t>休旅車</t>
   </si>
   <si>
     <t>93年01月06日</t>
@@ -1060,38 +1063,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1100,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1108,8 +1132,29 @@
       <c r="G2" s="2">
         <v>660000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>962</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -1123,13 +1168,34 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="2">
         <v>965000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1147,13 +1213,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1167,13 +1233,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1187,13 +1253,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1207,13 +1273,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1227,13 +1293,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1263,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1301,7 +1367,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1313,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1345,7 +1411,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1357,13 +1423,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1399,14 +1465,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1416,16 +1482,16 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1433,22 +1499,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,9 @@
     <t>rmt=f貝賣</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>93年01月06日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台灣郵政股份有限公司</t>
@@ -923,7 +929,7 @@
         <v>474900</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -976,7 +982,7 @@
         <v>784500</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1029,7 +1035,7 @@
         <v>706500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1074,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1115,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1124,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1133,7 +1139,7 @@
         <v>660000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1159,7 +1165,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>2500</v>
@@ -1168,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
@@ -1177,7 +1183,7 @@
         <v>965000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1213,13 +1219,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1233,13 +1239,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1253,13 +1259,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1273,13 +1279,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1293,13 +1299,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1329,13 +1335,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1367,7 +1373,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1379,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1411,7 +1417,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1423,13 +1429,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1465,14 +1471,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1482,16 +1488,16 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1499,22 +1505,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -159,25 +159,34 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台灣郵政股份有限公司</t>
   </si>
   <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台灣銀行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>五鼎生技</t>
@@ -1211,13 +1220,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1228,24 +1237,45 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>11121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1253,19 +1283,40 @@
       <c r="F2" s="2">
         <v>11121</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>962</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1273,19 +1324,40 @@
       <c r="F3" s="2">
         <v>107765</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>962</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1293,25 +1365,67 @@
       <c r="F4" s="2">
         <v>968171</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>962</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>1683</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>962</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1335,13 +1449,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1373,7 +1487,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1385,13 +1499,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>29780</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1417,7 +1531,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1429,13 +1543,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1471,14 +1585,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1488,16 +1602,16 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1505,22 +1619,22 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp55951.xlsx
@@ -12,14 +12,13 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -196,33 +195,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
 </sst>
 </file>
@@ -1573,71 +1545,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>